--- a/Dataset/Folds/Fold_5/Excel/50.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/50.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="303">
   <si>
     <t>Doi</t>
   </si>
@@ -913,6 +913,80 @@
   </si>
   <si>
     <t>[Karine%Kahil%NULL%1,                            Mohamad Ali%Cheaito%NULL%1,                            Rawad%El Hayek%NULL%1,                            Marwa%Nofal%NULL%1,                            Sarah%El Halabi%NULL%1,                            Kundadak Ganesh%Kudva%NULL%1,                            Victor%Pereira-Sanchez%NULL%1,                            Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                             Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                             Komal%Chhikara%dimpichhikara@gmail.com%1,                             Parakriti%Gupta%parakritii@gmail.com%1,                             Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                             Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                             Seema%Rani%NULL%1,                             Shaheena%Parveen%NULL%1,                             Ajay%Pal Singh%NULL%1,                             Aseem%Mehra%NULL%1,                             Subho%Chakrabarti%NULL%1,                             Sandeep%Grover%NULL%1,                             Cheering%Tandup%NULL%2,                             Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                             David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                             Hsien-Hao%Huang%NULL%1,                             Wei-Fong%Kao%NULL%1,                             Lee-Min%Wang%NULL%1,                             Chun-I%Huang%NULL%1,                             Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                             Robert H.%Yolken%NULL%1,                             Patricia%Langenberg%NULL%1,                             Manana%Lapidus%NULL%1,                             Timothy A.%Arling%NULL%1,                             Faith B.%Dickerson%NULL%1,                             Debra A.%Scrandis%NULL%1,                             Emily%Severance%NULL%1,                             Johanna A.%Cabassa%NULL%1,                             Theodora%Balis%NULL%1,                             Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%0,                             Mohamad Ali%Cheaito%NULL%1,                             Rawad%El Hayek%NULL%1,                             Marwa%Nofal%NULL%1,                             Sarah%El Halabi%NULL%1,                             Kundadak Ganesh%Kudva%NULL%1,                             Victor%Pereira-Sanchez%NULL%1,                             Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%1,                              Poonam%Chauhan%chauhan.poonamk@gmail.com%1,                              Komal%Chhikara%dimpichhikara@gmail.com%1,                              Parakriti%Gupta%parakritii@gmail.com%1,                              Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%1,                              Mark D.%Griffiths%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%1,                              Seema%Rani%NULL%1,                              Shaheena%Parveen%NULL%1,                              Ajay%Pal Singh%NULL%1,                              Aseem%Mehra%NULL%1,                              Subho%Chakrabarti%NULL%1,                              Sandeep%Grover%NULL%1,                              Cheering%Tandup%NULL%2,                              Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%1,                              David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1,                              Hsien-Hao%Huang%NULL%1,                              Wei-Fong%Kao%NULL%1,                              Lee-Min%Wang%NULL%1,                              Chun-I%Huang%NULL%1,                              Chen-Hsen%Lee%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%1,                              Robert H.%Yolken%NULL%1,                              Patricia%Langenberg%NULL%1,                              Manana%Lapidus%NULL%1,                              Timothy A.%Arling%NULL%1,                              Faith B.%Dickerson%NULL%1,                              Debra A.%Scrandis%NULL%1,                              Emily%Severance%NULL%1,                              Johanna A.%Cabassa%NULL%1,                              Theodora%Balis%NULL%1,                              Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%0,                              Mohamad Ali%Cheaito%NULL%1,                              Rawad%El Hayek%NULL%1,                              Marwa%Nofal%NULL%1,                              Sarah%El Halabi%NULL%1,                              Kundadak Ganesh%Kudva%NULL%1,                              Victor%Pereira-Sanchez%NULL%1,                              Samer%El Hayek%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Kapil%Goyal%kapilgoyalpgi@gmail.com%0, Poonam%Chauhan%chauhan.poonamk@gmail.com%1, Komal%Chhikara%dimpichhikara@gmail.com%1, Parakriti%Gupta%parakritii@gmail.com%1, Mini P.%Singh%minipsingh@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Mohammed A.%Mamun%NULL%0, Mark D.%Griffiths%NULL%7]</t>
+  </si>
+  <si>
+    <t>[Swapnajeet%Sahoo%NULL%0, Seema%Rani%NULL%1, Shaheena%Parveen%NULL%1, Ajay%Pal Singh%NULL%1, Aseem%Mehra%NULL%3, Subho%Chakrabarti%NULL%1, Sandeep%Grover%NULL%2, Cheering%Tandup%NULL%2, Cheering%Tandup%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Chien-Cheng%Huang%NULL%0, David Hung-Tsang%Yen%hjyen@vghtpe.gov.tw%1, Hsien-Hao%Huang%NULL%1, Wei-Fong%Kao%NULL%1, Lee-Min%Wang%NULL%0, Chun-I%Huang%NULL%1, Chen-Hsen%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier. Published by Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Olaoluwa%Okusaga%NULL%0, Robert H.%Yolken%NULL%1, Patricia%Langenberg%NULL%1, Manana%Lapidus%NULL%1, Timothy A.%Arling%NULL%1, Faith B.%Dickerson%NULL%1, Debra A.%Scrandis%NULL%1, Emily%Severance%NULL%1, Johanna A.%Cabassa%NULL%1, Theodora%Balis%NULL%1, Teodor T.%Postolache%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coronavirus disease 2019 (COVID-19) was recently declared a pandemic by the WHO.
+ This outbreak threatens not only physical health but also has significant repercussions on mental health.
+ In recent world history, major infectious outbreaks were associated with severe mental health sequelae, including suicide.
+ In this study, we systematically review the literature on suicidal outcomes during major international respiratory outbreaks, including COVID-19. We reviewed descriptive and analytic articles addressing suicide during major international respiratory outbreaks.
+ We searched PubMed, Medline, Embase, Scopus, and PsycInfo databases and then utilized an independent method for study selection by a pair of reviewers.
+ Two reviewers completed data abstraction and conducted a narrative summary of the findings.
+ Our search generated 2,153 articles.
+ Nine studies (three descriptive, five analytical, and one with mixed methodology) were eligible.
+ The included studies were heterogeneous, divergent in methods, and with a low degree of evidence.
+ Deducing an association between pandemics, suicide, and suicide-related outcomes remains thus poorly supported.
+ Future research with better methodological characteristics, the use of longitudinal studies, and a focus on suicide as the primary outcome would allow for an in-depth understanding and formulation of the scope of this problem.
+</t>
+  </si>
+  <si>
+    <t>[Karine%Kahil%NULL%0, Mohamad Ali%Cheaito%NULL%1, Rawad%El Hayek%NULL%1, Marwa%Nofal%NULL%1, Sarah%El Halabi%NULL%1, Kundadak Ganesh%Kudva%NULL%1, Victor%Pereira-Sanchez%NULL%1, Samer%El Hayek%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1348,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1286,10 +1360,10 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3">
@@ -1306,7 +1380,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
         <v>30</v>
@@ -1318,10 +1392,10 @@
         <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
@@ -1338,7 +1412,7 @@
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="F4" t="s">
         <v>34</v>
@@ -1350,10 +1424,10 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5">
@@ -1364,25 +1438,25 @@
         <v>38733.0</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
@@ -1396,25 +1470,25 @@
         <v>39591.0</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
         <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -1434,7 +1508,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1446,10 +1520,10 @@
         <v>39</v>
       </c>
       <c r="I7" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8">
@@ -1460,28 +1534,28 @@
         <v>43937.0</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -1498,7 +1572,7 @@
         <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="F9" t="s">
         <v>43</v>
@@ -1510,10 +1584,10 @@
         <v>44</v>
       </c>
       <c r="I9" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10">
@@ -1527,10 +1601,10 @@
         <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>301</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -1542,10 +1616,10 @@
         <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
